--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H2">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I2">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J2">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N2">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O2">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P2">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q2">
-        <v>16.415282182247</v>
+        <v>12.743345311697</v>
       </c>
       <c r="R2">
-        <v>65.661128728988</v>
+        <v>50.973381246788</v>
       </c>
       <c r="S2">
-        <v>0.03229726531525914</v>
+        <v>0.04247647504600899</v>
       </c>
       <c r="T2">
-        <v>0.01833953669638874</v>
+        <v>0.02525245176582058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H3">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I3">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J3">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N3">
         <v>12.447158</v>
       </c>
       <c r="O3">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P3">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q3">
-        <v>13.45130342828133</v>
+        <v>10.15576483283267</v>
       </c>
       <c r="R3">
-        <v>80.70782056968798</v>
+        <v>60.93458899699601</v>
       </c>
       <c r="S3">
-        <v>0.02646560143383346</v>
+        <v>0.03385147941482772</v>
       </c>
       <c r="T3">
-        <v>0.02254216559591214</v>
+        <v>0.0301872807312288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H4">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I4">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J4">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N4">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O4">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P4">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q4">
-        <v>12.37171791831733</v>
+        <v>6.454746606212667</v>
       </c>
       <c r="R4">
-        <v>74.23030750990398</v>
+        <v>38.728479637276</v>
       </c>
       <c r="S4">
-        <v>0.0243415039459739</v>
+        <v>0.02151514193807814</v>
       </c>
       <c r="T4">
-        <v>0.02073295837147402</v>
+        <v>0.01918627016852061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H5">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I5">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J5">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N5">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O5">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P5">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q5">
-        <v>9.560505213857001</v>
+        <v>7.712225164215</v>
       </c>
       <c r="R5">
-        <v>38.242020855428</v>
+        <v>30.84890065686</v>
       </c>
       <c r="S5">
-        <v>0.01881040910608281</v>
+        <v>0.0257066046414273</v>
       </c>
       <c r="T5">
-        <v>0.01068121974748446</v>
+        <v>0.01528268984343737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H6">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I6">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J6">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N6">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O6">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P6">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q6">
-        <v>11.11365607543533</v>
+        <v>1.269240721367667</v>
       </c>
       <c r="R6">
-        <v>66.68193645261199</v>
+        <v>7.615444328206</v>
       </c>
       <c r="S6">
-        <v>0.02186625212444221</v>
+        <v>0.004230668675286231</v>
       </c>
       <c r="T6">
-        <v>0.01862465425482472</v>
+        <v>0.003772726781498959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.242018</v>
+        <v>2.447731</v>
       </c>
       <c r="H7">
-        <v>6.484036</v>
+        <v>4.895462</v>
       </c>
       <c r="I7">
-        <v>0.1552620467498036</v>
+        <v>0.1435615593890722</v>
       </c>
       <c r="J7">
-        <v>0.117734595592262</v>
+        <v>0.1077543995909285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N7">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O7">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P7">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q7">
-        <v>16.00041788921333</v>
+        <v>4.734506552633</v>
       </c>
       <c r="R7">
-        <v>96.00250733528</v>
+        <v>28.407039315798</v>
       </c>
       <c r="S7">
-        <v>0.03148101482421205</v>
+        <v>0.01578118967344384</v>
       </c>
       <c r="T7">
-        <v>0.02681406092617794</v>
+        <v>0.0140729803004222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.945323</v>
       </c>
       <c r="I8">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J8">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N8">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O8">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P8">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q8">
-        <v>11.72206497021817</v>
+        <v>12.05288343780033</v>
       </c>
       <c r="R8">
-        <v>70.33238982130901</v>
+        <v>72.31730062680199</v>
       </c>
       <c r="S8">
-        <v>0.02306330394949191</v>
+        <v>0.04017500821454267</v>
       </c>
       <c r="T8">
-        <v>0.01964424719831487</v>
+        <v>0.0358263293751528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.945323</v>
       </c>
       <c r="I9">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J9">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N9">
         <v>12.447158</v>
       </c>
       <c r="O9">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P9">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q9">
-        <v>9.605503638003777</v>
+        <v>9.605503638003778</v>
       </c>
       <c r="R9">
         <v>86.44953274203399</v>
       </c>
       <c r="S9">
-        <v>0.01889894404732243</v>
+        <v>0.03201733340848178</v>
       </c>
       <c r="T9">
-        <v>0.02414585933562017</v>
+        <v>0.04282750334290415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.945323</v>
       </c>
       <c r="I10">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J10">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N10">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O10">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P10">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q10">
-        <v>8.83457741521911</v>
+        <v>6.105014543850444</v>
       </c>
       <c r="R10">
-        <v>79.511196736972</v>
+        <v>54.945130894654</v>
       </c>
       <c r="S10">
-        <v>0.01738213742290175</v>
+        <v>0.02034940524521127</v>
       </c>
       <c r="T10">
-        <v>0.02220794157149051</v>
+        <v>0.02722007514012776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.945323</v>
       </c>
       <c r="I11">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J11">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N11">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O11">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P11">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q11">
-        <v>6.827105499663167</v>
+        <v>7.294360207364999</v>
       </c>
       <c r="R11">
-        <v>40.96263299797901</v>
+        <v>43.76616124418999</v>
       </c>
       <c r="S11">
-        <v>0.01343241226132267</v>
+        <v>0.02431376547886073</v>
       </c>
       <c r="T11">
-        <v>0.0114411026065028</v>
+        <v>0.02168196122684478</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.945323</v>
       </c>
       <c r="I12">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J12">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N12">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O12">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P12">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q12">
-        <v>7.936202200276778</v>
+        <v>1.200470527555444</v>
       </c>
       <c r="R12">
-        <v>71.42581980249101</v>
+        <v>10.804234747999</v>
       </c>
       <c r="S12">
-        <v>0.01561457337206716</v>
+        <v>0.004001441941651946</v>
       </c>
       <c r="T12">
-        <v>0.0199496485773802</v>
+        <v>0.005352468487807831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.945323</v>
       </c>
       <c r="I13">
-        <v>0.1108717949045405</v>
+        <v>0.1357830851430419</v>
       </c>
       <c r="J13">
-        <v>0.1261104649423038</v>
+        <v>0.1528740514848377</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N13">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O13">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P13">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q13">
-        <v>11.42581260350444</v>
+        <v>4.477980798496334</v>
       </c>
       <c r="R13">
-        <v>102.83231343154</v>
+        <v>40.301827186467</v>
       </c>
       <c r="S13">
-        <v>0.0224804238514346</v>
+        <v>0.01492613085429349</v>
       </c>
       <c r="T13">
-        <v>0.02872166565299529</v>
+        <v>0.01996571391200038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H14">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I14">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J14">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N14">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O14">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P14">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q14">
-        <v>19.589641902091</v>
+        <v>9.285323019679</v>
       </c>
       <c r="R14">
-        <v>117.537851412546</v>
+        <v>55.711938118074</v>
       </c>
       <c r="S14">
-        <v>0.03854285627980263</v>
+        <v>0.03095009841548471</v>
       </c>
       <c r="T14">
-        <v>0.0328290082872643</v>
+        <v>0.02759995502938498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H15">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I15">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J15">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N15">
         <v>12.447158</v>
       </c>
       <c r="O15">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P15">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q15">
-        <v>16.05249391091067</v>
+        <v>7.399905964895334</v>
       </c>
       <c r="R15">
-        <v>144.472445198196</v>
+        <v>66.59915368405801</v>
       </c>
       <c r="S15">
-        <v>0.03158347502383877</v>
+        <v>0.02466557355015535</v>
       </c>
       <c r="T15">
-        <v>0.04035199762199036</v>
+        <v>0.03299353260300192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H16">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I16">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J16">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N16">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O16">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P16">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q16">
-        <v>14.76413996681867</v>
+        <v>4.703192590555334</v>
       </c>
       <c r="R16">
-        <v>132.877259701368</v>
+        <v>42.328733314998</v>
       </c>
       <c r="S16">
-        <v>0.02904862312849328</v>
+        <v>0.01567681309914174</v>
       </c>
       <c r="T16">
-        <v>0.03711339460012926</v>
+        <v>0.02096985269959161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H17">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I17">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J17">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N17">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O17">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P17">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q17">
-        <v>11.409299667421</v>
+        <v>5.619442940504999</v>
       </c>
       <c r="R17">
-        <v>68.45579800452602</v>
+        <v>33.71665764303</v>
       </c>
       <c r="S17">
-        <v>0.0224479344508931</v>
+        <v>0.01873088439467593</v>
       </c>
       <c r="T17">
-        <v>0.01912010414512303</v>
+        <v>0.01670339008340656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H18">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I18">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J18">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N18">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O18">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P18">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q18">
-        <v>13.26279623607267</v>
+        <v>0.9248207436403334</v>
       </c>
       <c r="R18">
-        <v>119.365166124654</v>
+        <v>8.323386692763</v>
       </c>
       <c r="S18">
-        <v>0.02609471126374659</v>
+        <v>0.003082638371512421</v>
       </c>
       <c r="T18">
-        <v>0.03333938795735609</v>
+        <v>0.004123444744025393</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.868954</v>
+        <v>1.783517</v>
       </c>
       <c r="H19">
-        <v>11.606862</v>
+        <v>5.350551</v>
       </c>
       <c r="I19">
-        <v>0.1852863607854243</v>
+        <v>0.104604828601231</v>
       </c>
       <c r="J19">
-        <v>0.2107528711538914</v>
+        <v>0.1177713994073781</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N19">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O19">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P19">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q19">
-        <v>19.09455184830667</v>
+        <v>3.449755272631</v>
       </c>
       <c r="R19">
-        <v>171.85096663476</v>
+        <v>31.047797453679</v>
       </c>
       <c r="S19">
-        <v>0.03756876063864992</v>
+        <v>0.01149882077026092</v>
       </c>
       <c r="T19">
-        <v>0.04799897854202839</v>
+        <v>0.01538122424796767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H20">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I20">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J20">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N20">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O20">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P20">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q20">
-        <v>21.911312953586</v>
+        <v>17.028063243632</v>
       </c>
       <c r="R20">
-        <v>87.64525181434401</v>
+        <v>68.112252974528</v>
       </c>
       <c r="S20">
-        <v>0.04311077202394895</v>
+        <v>0.05675841670758889</v>
       </c>
       <c r="T20">
-        <v>0.02447983065517685</v>
+        <v>0.03374312907698311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H21">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I21">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J21">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N21">
         <v>12.447158</v>
       </c>
       <c r="O21">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P21">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q21">
-        <v>17.95495903015733</v>
+        <v>13.57045592276267</v>
       </c>
       <c r="R21">
-        <v>107.729754180944</v>
+        <v>81.42273553657601</v>
       </c>
       <c r="S21">
-        <v>0.03532659804951464</v>
+        <v>0.0452334232705048</v>
       </c>
       <c r="T21">
-        <v>0.03008954945396979</v>
+        <v>0.04033720446803034</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H22">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I22">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J22">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N22">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O22">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P22">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q22">
-        <v>16.51391551312533</v>
+        <v>8.625037676042668</v>
       </c>
       <c r="R22">
-        <v>99.08349307875199</v>
+        <v>51.750226056256</v>
       </c>
       <c r="S22">
-        <v>0.03249132758119756</v>
+        <v>0.02874921683877107</v>
       </c>
       <c r="T22">
-        <v>0.02767459823641321</v>
+        <v>0.02563730432220961</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H23">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I23">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J23">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N23">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O23">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P23">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q23">
-        <v>12.761475520766</v>
+        <v>10.30532051304</v>
       </c>
       <c r="R23">
-        <v>51.04590208306401</v>
+        <v>41.22128205216</v>
       </c>
       <c r="S23">
-        <v>0.02510835672103847</v>
+        <v>0.03434998259142176</v>
       </c>
       <c r="T23">
-        <v>0.01425741854540074</v>
+        <v>0.02042121615805208</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H24">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I24">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J24">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N24">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O24">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P24">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q24">
-        <v>14.83463967440933</v>
+        <v>1.695999813722667</v>
       </c>
       <c r="R24">
-        <v>89.007838046456</v>
+        <v>10.175998882336</v>
       </c>
       <c r="S24">
-        <v>0.02918733215191577</v>
+        <v>0.005653154019102174</v>
       </c>
       <c r="T24">
-        <v>0.02486040894692315</v>
+        <v>0.005041237498079969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.327484</v>
+        <v>3.270736</v>
       </c>
       <c r="H25">
-        <v>8.654968</v>
+        <v>6.541472000000001</v>
       </c>
       <c r="I25">
-        <v>0.2072456177347032</v>
+        <v>0.1918315209105806</v>
       </c>
       <c r="J25">
-        <v>0.1571535317422619</v>
+        <v>0.1439848553212895</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N25">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O25">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P25">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q25">
-        <v>21.35754718477333</v>
+        <v>6.326398212848001</v>
       </c>
       <c r="R25">
-        <v>128.14528310864</v>
+        <v>37.958389277088</v>
       </c>
       <c r="S25">
-        <v>0.04202123120708783</v>
+        <v>0.02108732748319199</v>
       </c>
       <c r="T25">
-        <v>0.03579172590437815</v>
+        <v>0.01880476379793437</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H26">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I26">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J26">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N26">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O26">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P26">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q26">
-        <v>7.492353276446166</v>
+        <v>20.97563197623833</v>
       </c>
       <c r="R26">
-        <v>44.95411965867699</v>
+        <v>125.85379185743</v>
       </c>
       <c r="S26">
-        <v>0.01474129527098445</v>
+        <v>0.06991656322732946</v>
       </c>
       <c r="T26">
-        <v>0.0125559481399866</v>
+        <v>0.06234855782939919</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H27">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I27">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J27">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N27">
         <v>12.447158</v>
       </c>
       <c r="O27">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P27">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q27">
-        <v>6.139517809955776</v>
+        <v>16.71645712803445</v>
       </c>
       <c r="R27">
-        <v>55.25566028960198</v>
+        <v>150.44811415231</v>
       </c>
       <c r="S27">
-        <v>0.01207957520403452</v>
+        <v>0.05571976248692563</v>
       </c>
       <c r="T27">
-        <v>0.01543322859628161</v>
+        <v>0.07453270026361604</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H28">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I28">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J28">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N28">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O28">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P28">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q28">
-        <v>5.646767460435109</v>
+        <v>10.62455626840111</v>
       </c>
       <c r="R28">
-        <v>50.82090714391599</v>
+        <v>95.62100641561</v>
       </c>
       <c r="S28">
-        <v>0.011110082959188</v>
+        <v>0.03541406814075891</v>
       </c>
       <c r="T28">
-        <v>0.01419457614499002</v>
+        <v>0.04737109434861294</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H29">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I29">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J29">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N29">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O29">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P29">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q29">
-        <v>4.363658313531166</v>
+        <v>12.694374420975</v>
       </c>
       <c r="R29">
-        <v>26.181949881187</v>
+        <v>76.16624652585</v>
       </c>
       <c r="S29">
-        <v>0.008585550265451521</v>
+        <v>0.04231324390325524</v>
       </c>
       <c r="T29">
-        <v>0.007312771496982465</v>
+        <v>0.03773311519723493</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H30">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I30">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J30">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N30">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O30">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P30">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q30">
-        <v>5.072555962524778</v>
+        <v>2.089178752476111</v>
       </c>
       <c r="R30">
-        <v>45.65300366272299</v>
+        <v>18.802608772285</v>
       </c>
       <c r="S30">
-        <v>0.009980314924183454</v>
+        <v>0.006963709055639354</v>
       </c>
       <c r="T30">
-        <v>0.01275115052360115</v>
+        <v>0.00931490043391307</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.479739666666666</v>
+        <v>4.028981666666667</v>
       </c>
       <c r="H31">
-        <v>4.439219</v>
+        <v>12.086945</v>
       </c>
       <c r="I31">
-        <v>0.07086555636135849</v>
+        <v>0.2363032910138613</v>
       </c>
       <c r="J31">
-        <v>0.080605606401705</v>
+        <v>0.2660466982204285</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N31">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O31">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P31">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q31">
-        <v>7.302998636624443</v>
+        <v>7.793029585878334</v>
       </c>
       <c r="R31">
-        <v>65.72698772961999</v>
+        <v>70.13726627290501</v>
       </c>
       <c r="S31">
-        <v>0.01436873773751655</v>
+        <v>0.02597594419995275</v>
       </c>
       <c r="T31">
-        <v>0.01835793149986316</v>
+        <v>0.03474633014765238</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H32">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I32">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J32">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.0632915</v>
+        <v>5.206187</v>
       </c>
       <c r="N32">
-        <v>10.126583</v>
+        <v>10.412374</v>
       </c>
       <c r="O32">
-        <v>0.2080177737660798</v>
+        <v>0.2958763838089256</v>
       </c>
       <c r="P32">
-        <v>0.155770159179908</v>
+        <v>0.2343519323729451</v>
       </c>
       <c r="Q32">
-        <v>28.59564760706</v>
+        <v>16.68047390397267</v>
       </c>
       <c r="R32">
-        <v>171.57388564236</v>
+        <v>100.082843423836</v>
       </c>
       <c r="S32">
-        <v>0.05626228092659268</v>
+        <v>0.05559982219797089</v>
       </c>
       <c r="T32">
-        <v>0.0479215882027766</v>
+        <v>0.04958150929620443</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H33">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I33">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J33">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.149052666666666</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N33">
         <v>12.447158</v>
       </c>
       <c r="O33">
-        <v>0.1704576358991412</v>
+        <v>0.2357976575267298</v>
       </c>
       <c r="P33">
-        <v>0.1914659449290511</v>
+        <v>0.2801489391229476</v>
       </c>
       <c r="Q33">
-        <v>23.43235580237333</v>
+        <v>13.29344580449022</v>
       </c>
       <c r="R33">
-        <v>210.89120222136</v>
+        <v>119.641012240412</v>
       </c>
       <c r="S33">
-        <v>0.04610344214059737</v>
+        <v>0.04431008539583454</v>
       </c>
       <c r="T33">
-        <v>0.05890314432527697</v>
+        <v>0.05927071771416637</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H34">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I34">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J34">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.816054666666666</v>
+        <v>2.637032666666667</v>
       </c>
       <c r="N34">
-        <v>11.448164</v>
+        <v>7.911098</v>
       </c>
       <c r="O34">
-        <v>0.1567769101047529</v>
+        <v>0.1498670119608345</v>
       </c>
       <c r="P34">
-        <v>0.1760991174019599</v>
+        <v>0.1780555619200521</v>
       </c>
       <c r="Q34">
-        <v>21.55170297765333</v>
+        <v>8.448977069063556</v>
       </c>
       <c r="R34">
-        <v>193.96532679888</v>
+        <v>76.04079362157201</v>
       </c>
       <c r="S34">
-        <v>0.04240323506699841</v>
+        <v>0.02816236669887342</v>
       </c>
       <c r="T34">
-        <v>0.0541756484774629</v>
+        <v>0.03767096524098965</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H35">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I35">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J35">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.9489365</v>
+        <v>3.150765</v>
       </c>
       <c r="N35">
-        <v>5.897873000000001</v>
+        <v>6.30153</v>
       </c>
       <c r="O35">
-        <v>0.1211526544951116</v>
+        <v>0.1790632865150117</v>
       </c>
       <c r="P35">
-        <v>0.09072286436924296</v>
+        <v>0.1418289174405457</v>
       </c>
       <c r="Q35">
-        <v>16.65453173486</v>
+        <v>10.09496073807</v>
       </c>
       <c r="R35">
-        <v>99.92719040916002</v>
+        <v>60.56976442842</v>
       </c>
       <c r="S35">
-        <v>0.03276799169032298</v>
+        <v>0.03364880550537077</v>
       </c>
       <c r="T35">
-        <v>0.02791024782774946</v>
+        <v>0.03000654493156998</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H36">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I36">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J36">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.428005666666667</v>
+        <v>0.5185376666666667</v>
       </c>
       <c r="N36">
-        <v>10.284017</v>
+        <v>1.555613</v>
       </c>
       <c r="O36">
-        <v>0.1408344961449496</v>
+        <v>0.02946936974834968</v>
       </c>
       <c r="P36">
-        <v>0.1581918565323446</v>
+        <v>0.03501227602605075</v>
       </c>
       <c r="Q36">
-        <v>19.36014192329333</v>
+        <v>1.661379819253556</v>
       </c>
       <c r="R36">
-        <v>174.24127730964</v>
+        <v>14.952418373282</v>
       </c>
       <c r="S36">
-        <v>0.03809131230859445</v>
+        <v>0.005537757685157556</v>
       </c>
       <c r="T36">
-        <v>0.04866660627225926</v>
+        <v>0.007407498080725535</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.64764</v>
+        <v>3.203971333333334</v>
       </c>
       <c r="H37">
-        <v>16.94292</v>
+        <v>9.611914000000001</v>
       </c>
       <c r="I37">
-        <v>0.2704686234641698</v>
+        <v>0.1879157149422131</v>
       </c>
       <c r="J37">
-        <v>0.3076429301675758</v>
+        <v>0.2115685959751378</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.935326666666667</v>
+        <v>1.934243</v>
       </c>
       <c r="N37">
-        <v>14.80598</v>
+        <v>5.802729</v>
       </c>
       <c r="O37">
-        <v>0.2027605295899648</v>
+        <v>0.1099262904401489</v>
       </c>
       <c r="P37">
-        <v>0.2277500575874936</v>
+        <v>0.1306023731174588</v>
       </c>
       <c r="Q37">
-        <v>27.87294829573333</v>
+        <v>6.197259123700667</v>
       </c>
       <c r="R37">
-        <v>250.8565346616</v>
+        <v>55.77533211330601</v>
       </c>
       <c r="S37">
-        <v>0.05484036133106384</v>
+        <v>0.02065687745900595</v>
       </c>
       <c r="T37">
-        <v>0.07006569506205067</v>
+        <v>0.02763136071148184</v>
       </c>
     </row>
   </sheetData>
